--- a/secteur-action-publique/sante-famille/regions/barometre-resultats-sante-famille-regions-synthese.xlsx
+++ b/secteur-action-publique/sante-famille/regions/barometre-resultats-sante-famille-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="402">
   <si>
     <t>mesure</t>
   </si>
@@ -78,7 +78,118 @@
     <t>unite</t>
   </si>
   <si>
-    <t>Doubler le nombre de maisons de santé</t>
+    <t>Lutter contre les impayés de pensions alimentaires</t>
+  </si>
+  <si>
+    <t>Nombre de familles bénéficiaires d'une pension alimentaire versée par l'intermédiaire du service public des pensions alimentaires</t>
+  </si>
+  <si>
+    <t>nb-familles-aripa</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>190.0</t>
+  </si>
+  <si>
+    <t>familles</t>
+  </si>
+  <si>
+    <t>Proposer une offre de lunettes, appareils auditifs et prothèses dentaires remboursée à 100%</t>
+  </si>
+  <si>
+    <t>Part des équipements/soins auditives 100% santé dans le total des soins</t>
+  </si>
+  <si>
+    <t>tx-equipements-audio</t>
+  </si>
+  <si>
+    <t>15.53</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>25.64</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>-39.0</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Part des équipements/soins 100% santé dans le total des soins dentaires</t>
+  </si>
+  <si>
+    <t>tx-equipements-dentaire</t>
+  </si>
+  <si>
+    <t>46.15</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>16.48</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>Part des équipements/soins 100% santé dans le total des soins optiques</t>
+  </si>
+  <si>
+    <t>tx-equipements-optique</t>
+  </si>
+  <si>
+    <t>19.11</t>
+  </si>
+  <si>
+    <t>18.63</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Doubler le nombre de maisons de santé et de centres de santé dans les territoires</t>
   </si>
   <si>
     <t>Nombre de maisons de santé pluri-professionnelles</t>
@@ -87,18 +198,9 @@
     <t>nb-maisons-sante</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
@@ -114,6 +216,15 @@
     <t>maisons de santé</t>
   </si>
   <si>
+    <t>Nombre de centres de santé</t>
+  </si>
+  <si>
+    <t>nb-centres-sante</t>
+  </si>
+  <si>
+    <t>centres de santé</t>
+  </si>
+  <si>
     <t>Allonger le congé paternité pour un meilleur développement de l’enfant</t>
   </si>
   <si>
@@ -123,13 +234,22 @@
     <t>nb-peres-conge-paternite</t>
   </si>
   <si>
-    <t>387.0</t>
+    <t>343.0</t>
+  </si>
+  <si>
+    <t>359.0</t>
   </si>
   <si>
     <t>2019-12-31</t>
   </si>
   <si>
-    <t>pères dans l'année</t>
+    <t>-16.0</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>pères / conjoints dans l'année</t>
   </si>
   <si>
     <t>Simplifier l’accès aux droits des personnes handicapées</t>
@@ -141,663 +261,759 @@
     <t>duree-moyenne-traitement-demandes-allocation-adulte-handicape</t>
   </si>
   <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>-45.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>mois de traitement</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>15.42</t>
+  </si>
+  <si>
+    <t>23.16</t>
+  </si>
+  <si>
+    <t>-8.0</t>
+  </si>
+  <si>
+    <t>-33.0</t>
+  </si>
+  <si>
+    <t>45.73</t>
+  </si>
+  <si>
+    <t>23.47</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t>19.53</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>422.0</t>
+  </si>
+  <si>
+    <t>452.0</t>
+  </si>
+  <si>
+    <t>-30.0</t>
+  </si>
+  <si>
+    <t>-7.0</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>-116.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>46.89</t>
+  </si>
+  <si>
+    <t>16.97</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>33.17</t>
+  </si>
+  <si>
+    <t>36.8</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>305.0</t>
+  </si>
+  <si>
+    <t>-26.0</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>-14.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>225.0</t>
+  </si>
+  <si>
+    <t>22.01</t>
+  </si>
+  <si>
+    <t>48.47</t>
+  </si>
+  <si>
+    <t>-55.0</t>
+  </si>
+  <si>
+    <t>65.57</t>
+  </si>
+  <si>
+    <t>28.53</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>32.59</t>
+  </si>
+  <si>
+    <t>39.55</t>
+  </si>
+  <si>
+    <t>-18.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
     <t>9.0</t>
   </si>
   <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>2700.0</t>
+  </si>
+  <si>
+    <t>2533.0</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>375.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>53.39</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>29.17</t>
+  </si>
+  <si>
+    <t>8.46</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>245.0</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>586.0</t>
+  </si>
+  <si>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>435.0</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>11.95</t>
+  </si>
+  <si>
+    <t>11.27</t>
+  </si>
+  <si>
+    <t>34.33</t>
+  </si>
+  <si>
+    <t>15.07</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>11.65</t>
+  </si>
+  <si>
+    <t>12.55</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>62485.0</t>
+  </si>
+  <si>
+    <t>65642.0</t>
+  </si>
+  <si>
+    <t>-3157.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>263.0</t>
+  </si>
+  <si>
+    <t>202.0</t>
+  </si>
+  <si>
+    <t>331.0</t>
+  </si>
+  <si>
+    <t>9.48</t>
+  </si>
+  <si>
+    <t>9.35</t>
+  </si>
+  <si>
+    <t>52.57</t>
+  </si>
+  <si>
+    <t>30.84</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>8.43</t>
+  </si>
+  <si>
+    <t>7.43</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>10793.0</t>
+  </si>
+  <si>
+    <t>11262.0</t>
+  </si>
+  <si>
+    <t>-469.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>342.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>298.0</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>7.56</t>
+  </si>
+  <si>
+    <t>59.09</t>
+  </si>
+  <si>
+    <t>31.49</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>8.44</t>
+  </si>
+  <si>
+    <t>8.38</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>10446.0</t>
+  </si>
+  <si>
+    <t>10912.0</t>
+  </si>
+  <si>
+    <t>-466.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>398.0</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>224.0</t>
+  </si>
+  <si>
+    <t>8.68</t>
+  </si>
+  <si>
+    <t>9.88</t>
+  </si>
+  <si>
+    <t>-12.0</t>
+  </si>
+  <si>
+    <t>55.19</t>
+  </si>
+  <si>
+    <t>31.45</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>8.92</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>15027.0</t>
+  </si>
+  <si>
+    <t>15710.0</t>
+  </si>
+  <si>
+    <t>-683.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>575.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>402.0</t>
+  </si>
+  <si>
+    <t>232.0</t>
+  </si>
+  <si>
+    <t>13.32</t>
+  </si>
+  <si>
+    <t>59.79</t>
+  </si>
+  <si>
+    <t>31.06</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>13.14</t>
+  </si>
+  <si>
+    <t>14.39</t>
+  </si>
+  <si>
+    <t>172.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>27742.0</t>
+  </si>
+  <si>
+    <t>29111.0</t>
+  </si>
+  <si>
+    <t>-1369.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>436.0</t>
+  </si>
+  <si>
+    <t>313.0</t>
+  </si>
+  <si>
+    <t>254.0</t>
+  </si>
+  <si>
+    <t>10.81</t>
+  </si>
+  <si>
+    <t>11.84</t>
+  </si>
+  <si>
+    <t>51.51</t>
+  </si>
+  <si>
+    <t>23.64</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>8.76</t>
+  </si>
+  <si>
+    <t>10.41</t>
   </si>
   <si>
     <t>-2.0</t>
   </si>
   <si>
-    <t>-18.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>20563.0</t>
+  </si>
+  <si>
+    <t>21529.0</t>
+  </si>
+  <si>
+    <t>-966.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>291.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>59.63</t>
+  </si>
+  <si>
+    <t>33.73</t>
+  </si>
+  <si>
+    <t>6.57</t>
+  </si>
+  <si>
+    <t>8.04</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>20234.0</t>
+  </si>
+  <si>
+    <t>20460.0</t>
+  </si>
+  <si>
+    <t>-226.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>434.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>312.0</t>
+  </si>
+  <si>
+    <t>8.96</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>6.42</t>
+  </si>
+  <si>
+    <t>7.04</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>14795.0</t>
+  </si>
+  <si>
+    <t>15043.0</t>
+  </si>
+  <si>
+    <t>-248.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>858.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>724.0</t>
+  </si>
+  <si>
+    <t>540.0</t>
+  </si>
+  <si>
+    <t>9.32</t>
+  </si>
+  <si>
+    <t>8.69</t>
+  </si>
+  <si>
+    <t>57.28</t>
+  </si>
+  <si>
+    <t>32.75</t>
   </si>
   <si>
     <t>25.0</t>
   </si>
   <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>mois de traitement</t>
-  </si>
-  <si>
-    <t>Proposer une offre de lunettes, appareils auditifs et prothèses dentaires remboursée à 100%</t>
-  </si>
-  <si>
-    <t>Part des équipements/soins auditives 100% santé dans le total des soins</t>
-  </si>
-  <si>
-    <t>tx-equipements-audio</t>
-  </si>
-  <si>
-    <t>15.53</t>
-  </si>
-  <si>
-    <t>2020-10-31</t>
-  </si>
-  <si>
-    <t>25.64</t>
-  </si>
-  <si>
-    <t>2019-01-31</t>
-  </si>
-  <si>
-    <t>-10.0</t>
-  </si>
-  <si>
-    <t>-39.0</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Part des équipements/soins 100% santé dans le total des soins dentaires</t>
-  </si>
-  <si>
-    <t>tx-equipements-dentaire</t>
-  </si>
-  <si>
-    <t>46.15</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>16.48</t>
-  </si>
-  <si>
-    <t>2019-04-30</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>Part des équipements/soins 100% santé dans le total des soins optiques</t>
-  </si>
-  <si>
-    <t>tx-equipements-optique</t>
-  </si>
-  <si>
-    <t>19.11</t>
-  </si>
-  <si>
-    <t>18.63</t>
-  </si>
-  <si>
-    <t>2020-01-31</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>479.0</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>-140.0</t>
-  </si>
-  <si>
-    <t>15.42</t>
-  </si>
-  <si>
-    <t>23.16</t>
-  </si>
-  <si>
-    <t>-8.0</t>
-  </si>
-  <si>
-    <t>-33.0</t>
-  </si>
-  <si>
-    <t>45.73</t>
-  </si>
-  <si>
-    <t>23.47</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>20.2</t>
-  </si>
-  <si>
-    <t>19.53</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>322.0</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>-14.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>46.89</t>
-  </si>
-  <si>
-    <t>16.97</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>33.17</t>
-  </si>
-  <si>
-    <t>36.8</t>
-  </si>
-  <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>2629.0</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>22.01</t>
-  </si>
-  <si>
-    <t>48.47</t>
-  </si>
-  <si>
-    <t>-26.0</t>
-  </si>
-  <si>
-    <t>-55.0</t>
-  </si>
-  <si>
-    <t>65.57</t>
-  </si>
-  <si>
-    <t>28.53</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>32.59</t>
-  </si>
-  <si>
-    <t>39.55</t>
-  </si>
-  <si>
-    <t>-7.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>2020-02-29</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>-40.0</t>
-  </si>
-  <si>
-    <t>-100.0</t>
-  </si>
-  <si>
-    <t>29.17</t>
-  </si>
-  <si>
-    <t>8.46</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>245.0</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>2.73</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>68942.0</t>
-  </si>
-  <si>
-    <t>11.95</t>
-  </si>
-  <si>
-    <t>11.27</t>
-  </si>
-  <si>
-    <t>34.33</t>
-  </si>
-  <si>
-    <t>15.07</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>128.0</t>
-  </si>
-  <si>
-    <t>11.65</t>
-  </si>
-  <si>
-    <t>12.55</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>104.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>12513.0</t>
-  </si>
-  <si>
-    <t>9.48</t>
-  </si>
-  <si>
-    <t>9.35</t>
-  </si>
-  <si>
-    <t>52.57</t>
-  </si>
-  <si>
-    <t>30.84</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>8.43</t>
-  </si>
-  <si>
-    <t>7.43</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>12320.0</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>7.56</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>59.09</t>
-  </si>
-  <si>
-    <t>31.49</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>8.44</t>
-  </si>
-  <si>
-    <t>8.38</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>86.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>17377.0</t>
-  </si>
-  <si>
-    <t>8.68</t>
-  </si>
-  <si>
-    <t>9.88</t>
-  </si>
-  <si>
-    <t>-12.0</t>
-  </si>
-  <si>
-    <t>55.19</t>
-  </si>
-  <si>
-    <t>31.45</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>8.92</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>-9.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>159.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>31306.0</t>
-  </si>
-  <si>
-    <t>13.32</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>59.79</t>
-  </si>
-  <si>
-    <t>31.06</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>13.14</t>
-  </si>
-  <si>
-    <t>14.39</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>23645.0</t>
-  </si>
-  <si>
-    <t>10.81</t>
-  </si>
-  <si>
-    <t>11.84</t>
-  </si>
-  <si>
-    <t>51.51</t>
-  </si>
-  <si>
-    <t>23.64</t>
-  </si>
-  <si>
-    <t>118.0</t>
-  </si>
-  <si>
-    <t>8.76</t>
-  </si>
-  <si>
-    <t>10.41</t>
-  </si>
-  <si>
-    <t>-16.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>102.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>23275.0</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>59.63</t>
-  </si>
-  <si>
-    <t>33.73</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>6.57</t>
-  </si>
-  <si>
-    <t>8.04</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>117.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>17681.0</t>
-  </si>
-  <si>
-    <t>8.96</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>6.42</t>
-  </si>
-  <si>
-    <t>7.04</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>190.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>26339.0</t>
-  </si>
-  <si>
-    <t>9.32</t>
-  </si>
-  <si>
-    <t>8.69</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>57.28</t>
-  </si>
-  <si>
-    <t>32.75</t>
-  </si>
-  <si>
     <t>8.77</t>
   </si>
   <si>
@@ -807,94 +1023,136 @@
     <t>-17.0</t>
   </si>
   <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>22238.0</t>
+  </si>
+  <si>
+    <t>22746.0</t>
+  </si>
+  <si>
+    <t>-508.0</t>
+  </si>
+  <si>
     <t>76</t>
   </si>
   <si>
     <t>Occitanie</t>
   </si>
   <si>
-    <t>181.0</t>
+    <t>772.0</t>
+  </si>
+  <si>
+    <t>221.0</t>
+  </si>
+  <si>
+    <t>551.0</t>
+  </si>
+  <si>
+    <t>249.0</t>
+  </si>
+  <si>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>9.76</t>
+  </si>
+  <si>
+    <t>58.54</t>
+  </si>
+  <si>
+    <t>30.94</t>
+  </si>
+  <si>
+    <t>12.45</t>
+  </si>
+  <si>
+    <t>13.38</t>
+  </si>
+  <si>
+    <t>183.0</t>
   </si>
   <si>
     <t>99.0</t>
   </si>
   <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>23378.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>538.0</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>386.0</t>
+  </si>
+  <si>
+    <t>7.48</t>
+  </si>
+  <si>
+    <t>8.48</t>
+  </si>
+  <si>
+    <t>49.68</t>
+  </si>
+  <si>
+    <t>25.61</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>8.97</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>39262.0</t>
+  </si>
+  <si>
+    <t>40126.0</t>
+  </si>
+  <si>
+    <t>-864.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>321.0</t>
+  </si>
+  <si>
     <t>83.0</t>
   </si>
   <si>
-    <t>26629.0</t>
-  </si>
-  <si>
-    <t>12.22</t>
-  </si>
-  <si>
-    <t>9.76</t>
-  </si>
-  <si>
-    <t>58.54</t>
-  </si>
-  <si>
-    <t>30.94</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>12.45</t>
-  </si>
-  <si>
-    <t>13.38</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>229.0</t>
-  </si>
-  <si>
-    <t>155.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>44444.0</t>
-  </si>
-  <si>
-    <t>7.48</t>
-  </si>
-  <si>
-    <t>8.48</t>
-  </si>
-  <si>
-    <t>49.68</t>
-  </si>
-  <si>
-    <t>25.61</t>
-  </si>
-  <si>
-    <t>8.19</t>
-  </si>
-  <si>
-    <t>8.97</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>253.0</t>
-  </si>
-  <si>
-    <t>22747.0</t>
+    <t>238.0</t>
+  </si>
+  <si>
+    <t>287.0</t>
   </si>
   <si>
     <t>11.03</t>
@@ -912,52 +1170,73 @@
     <t>21.97</t>
   </si>
   <si>
-    <t>136.0</t>
-  </si>
-  <si>
     <t>14.43</t>
   </si>
   <si>
     <t>13.4</t>
   </si>
   <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>316.0</t>
+  </si>
+  <si>
+    <t>19847.0</t>
+  </si>
+  <si>
+    <t>20395.0</t>
+  </si>
+  <si>
+    <t>-548.0</t>
+  </si>
+  <si>
+    <t>-3.0</t>
+  </si>
+  <si>
     <t>94</t>
   </si>
   <si>
     <t>Corse</t>
   </si>
   <si>
+    <t>550.0</t>
+  </si>
+  <si>
+    <t>35.9</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>492.0</t>
+  </si>
+  <si>
+    <t>60.3</t>
+  </si>
+  <si>
+    <t>19.79</t>
+  </si>
+  <si>
+    <t>205.0</t>
+  </si>
+  <si>
+    <t>12.04</t>
+  </si>
+  <si>
+    <t>10.65</t>
+  </si>
+  <si>
     <t>50.0</t>
   </si>
   <si>
-    <t>1090.0</t>
-  </si>
-  <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>6.06</t>
-  </si>
-  <si>
-    <t>492.0</t>
-  </si>
-  <si>
-    <t>60.3</t>
-  </si>
-  <si>
-    <t>19.79</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>205.0</t>
-  </si>
-  <si>
-    <t>12.04</t>
-  </si>
-  <si>
-    <t>10.65</t>
+    <t>936.0</t>
+  </si>
+  <si>
+    <t>971.0</t>
+  </si>
+  <si>
+    <t>-35.0</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,19 +1681,31 @@
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1423,45 +1714,36 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1470,36 +1752,36 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>51</v>
       </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1508,36 +1790,36 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
+      <c r="O6" t="s">
         <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1546,25 +1828,98 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
         <v>68</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I8" t="s">
         <v>69</v>
       </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" t="s">
-        <v>55</v>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1929,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1638,28 +1993,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="K2" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -1676,133 +2031,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" t="s">
+        <v>229</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>192</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1876,28 +2307,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="K2" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -1914,133 +2345,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="K4" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="K5" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>280</v>
+      </c>
+      <c r="K6" t="s">
+        <v>281</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>221</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>284</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2557,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2114,28 +2621,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -2152,133 +2659,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>130</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" t="s">
+        <v>297</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2871,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2352,28 +2935,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="K2" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -2390,133 +2973,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>309</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>241</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>312</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>192</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>315</v>
+      </c>
+      <c r="K8" t="s">
+        <v>277</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +3185,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2590,28 +3249,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>319</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>320</v>
       </c>
       <c r="K2" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -2628,133 +3287,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>149</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>326</v>
       </c>
       <c r="K4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>328</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" t="s">
+        <v>331</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>257</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>333</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" t="s">
+        <v>277</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +3499,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2828,28 +3563,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="K2" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -2866,133 +3601,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>326</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>349</v>
+      </c>
+      <c r="K6" t="s">
+        <v>309</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>350</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>119</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3002,7 +3813,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3066,28 +3877,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="K2" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -3104,133 +3915,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" t="s">
+        <v>234</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>278</v>
+        <v>359</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>363</v>
+      </c>
+      <c r="K6" t="s">
+        <v>364</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F6" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>192</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>366</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>367</v>
+      </c>
+      <c r="K8" t="s">
+        <v>277</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3240,7 +4127,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3304,28 +4191,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>371</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>248</v>
+        <v>372</v>
       </c>
       <c r="K2" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -3342,133 +4229,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="F3" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" t="s">
+        <v>376</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="F5" t="s">
-        <v>291</v>
+        <v>379</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>381</v>
+      </c>
+      <c r="K6" t="s">
+        <v>382</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>385</v>
+      </c>
+      <c r="K8" t="s">
+        <v>386</v>
+      </c>
+      <c r="O8" t="s">
         <v>72</v>
-      </c>
-      <c r="K6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +4441,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3542,28 +4505,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -3580,133 +4543,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>392</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>393</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="K4" t="s">
-        <v>302</v>
+        <v>395</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>397</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>305</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>398</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" t="s">
-        <v>307</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>308</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" t="s">
+        <v>399</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>400</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>401</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
         <v>72</v>
-      </c>
-      <c r="K6" t="s">
-        <v>162</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +4755,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3780,28 +4819,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -3818,180 +4857,256 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" t="s">
+        <v>93</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
         <v>72</v>
       </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" t="s">
-        <v>55</v>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4001,7 +5116,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4065,28 +5180,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -4103,177 +5218,253 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" t="s">
-        <v>62</v>
-      </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>55</v>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4283,7 +5474,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4347,28 +5538,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -4385,180 +5576,256 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" t="s">
+        <v>135</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" t="s">
-        <v>55</v>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4568,7 +5835,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4623,28 +5890,46 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>157</v>
+      </c>
+      <c r="H2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4652,171 +5937,209 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" t="s">
+        <v>163</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
-        <v>133</v>
-      </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>167</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4826,7 +6149,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4890,28 +6213,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -4928,133 +6251,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" t="s">
+        <v>184</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>119</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5064,7 +6463,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5128,28 +6527,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -5166,133 +6565,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>100</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
         <v>159</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
         <v>72</v>
-      </c>
-      <c r="K6" t="s">
-        <v>162</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5302,7 +6777,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5366,28 +6841,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -5404,133 +6879,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>143</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="K4" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I8" t="s">
         <v>69</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
         <v>72</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5540,7 +7091,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5604,28 +7155,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -5642,133 +7193,209 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" t="s">
+        <v>234</v>
+      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" t="s">
+        <v>243</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>192</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/sante-famille/regions/barometre-resultats-sante-famille-regions-synthese.xlsx
+++ b/secteur-action-publique/sante-famille/regions/barometre-resultats-sante-famille-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="426">
   <si>
     <t>mesure</t>
   </si>
@@ -93,7 +93,7 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>1121.0</t>
+    <t>252.0</t>
   </si>
   <si>
     <t>2021-12-31</t>
@@ -105,1123 +105,1156 @@
     <t>2020-09-30</t>
   </si>
   <si>
-    <t>1338.0</t>
+    <t>1338</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>familles</t>
+  </si>
+  <si>
+    <t>Proposer une offre de lunettes, appareils auditifs et prothèses dentaires remboursée à 100%</t>
+  </si>
+  <si>
+    <t>Part des équipements vendus sans reste à charge dans le total des soins audio</t>
+  </si>
+  <si>
+    <t>tx-equipements-audio</t>
+  </si>
+  <si>
+    <t>34.26</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Part des équipements vendus sans reste à charge dans le total des soins dentaires</t>
+  </si>
+  <si>
+    <t>tx-equipements-dentaire</t>
+  </si>
+  <si>
+    <t>55.04</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>Part des équipements vendus sans reste à charge dans le total des soins optiques</t>
+  </si>
+  <si>
+    <t>tx-equipements-optique</t>
+  </si>
+  <si>
+    <t>28.83</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Doubler le nombre de maisons de santé et de centres de santé dans les territoires</t>
+  </si>
+  <si>
+    <t>Nombre de maisons de santé pluri-professionnelles</t>
+  </si>
+  <si>
+    <t>nb-maisons-sante</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>maisons de santé</t>
+  </si>
+  <si>
+    <t>Nombre de centres de santé</t>
+  </si>
+  <si>
+    <t>nb-centres-sante</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>centres de santé</t>
+  </si>
+  <si>
+    <t>Allonger le congé paternité pour un meilleur développement de l’enfant</t>
+  </si>
+  <si>
+    <t>Nombre de pères / conjoints prenant un congé de paternité</t>
+  </si>
+  <si>
+    <t>nb-peres-conge-paternite</t>
+  </si>
+  <si>
+    <t>356.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>322.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>pères / conjoints dans l'année</t>
+  </si>
+  <si>
+    <t>Simplifier l’accès aux droits des personnes handicapées</t>
+  </si>
+  <si>
+    <t>Durée moyenne de traitement pour les demandes d’allocation adulte handicapé</t>
+  </si>
+  <si>
+    <t>duree-moyenne-traitement-demandes-allocation-adulte-handicape</t>
+  </si>
+  <si>
+    <t>7.02</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>-36.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>mois de traitement</t>
+  </si>
+  <si>
+    <t>Accompagner les aidants</t>
+  </si>
+  <si>
+    <t>Nombre de bénéficiaires d'un congé de proche aidant indemnisé</t>
+  </si>
+  <si>
+    <t>nb-beneficiaires-ajpa</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>bénéficiaires</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>1392</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>55.34</t>
+  </si>
+  <si>
+    <t>24.56</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>426.0</t>
+  </si>
+  <si>
+    <t>438.0</t>
+  </si>
+  <si>
+    <t>-12.0</t>
+  </si>
+  <si>
+    <t>-3.0</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>14.81</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>56.44</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>41.6</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>281.0</t>
+  </si>
+  <si>
+    <t>215.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>5.63</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>-41.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>2584</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>39.27</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>70.8</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>44.05</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2727.0</t>
+  </si>
+  <si>
+    <t>2379.0</t>
+  </si>
+  <si>
+    <t>348.0</t>
+  </si>
+  <si>
+    <t>3257</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>62.5</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>40.81</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>5.68</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>-7.0</t>
+  </si>
+  <si>
+    <t>-77.0</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>5214.0</t>
+  </si>
+  <si>
+    <t>39778</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>42.97</t>
+  </si>
+  <si>
+    <t>39.92</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>16.79</t>
+  </si>
+  <si>
+    <t>17.0</t>
   </si>
   <si>
     <t>84.0</t>
   </si>
   <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>familles</t>
-  </si>
-  <si>
-    <t>Proposer une offre de lunettes, appareils auditifs et prothèses dentaires remboursée à 100%</t>
-  </si>
-  <si>
-    <t>Part des équipements vendus sans reste à charge dans le total des soins audio</t>
-  </si>
-  <si>
-    <t>tx-equipements-audio</t>
-  </si>
-  <si>
-    <t>34.26</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>86.0</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Part des équipements vendus sans reste à charge dans le total des soins dentaires</t>
-  </si>
-  <si>
-    <t>tx-equipements-dentaire</t>
-  </si>
-  <si>
-    <t>55.04</t>
-  </si>
-  <si>
-    <t>2019-03-31</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>Part des équipements vendus sans reste à charge dans le total des soins optiques</t>
-  </si>
-  <si>
-    <t>tx-equipements-optique</t>
-  </si>
-  <si>
-    <t>28.83</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>Doubler le nombre de maisons de santé et de centres de santé dans les territoires</t>
-  </si>
-  <si>
-    <t>Nombre de maisons de santé pluri-professionnelles</t>
-  </si>
-  <si>
-    <t>nb-maisons-sante</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>maisons de santé</t>
-  </si>
-  <si>
-    <t>Nombre de centres de santé</t>
-  </si>
-  <si>
-    <t>nb-centres-sante</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>centres de santé</t>
-  </si>
-  <si>
-    <t>Allonger le congé paternité pour un meilleur développement de l’enfant</t>
-  </si>
-  <si>
-    <t>Nombre de pères / conjoints prenant un congé de paternité</t>
-  </si>
-  <si>
-    <t>nb-peres-conge-paternite</t>
-  </si>
-  <si>
-    <t>356.0</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>322.0</t>
-  </si>
-  <si>
-    <t>533.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>pères / conjoints dans l'année</t>
-  </si>
-  <si>
-    <t>Simplifier l’accès aux droits des personnes handicapées</t>
-  </si>
-  <si>
-    <t>Durée moyenne de traitement pour les demandes d’allocation adulte handicapé</t>
-  </si>
-  <si>
-    <t>duree-moyenne-traitement-demandes-allocation-adulte-handicape</t>
-  </si>
-  <si>
-    <t>7.02</t>
-  </si>
-  <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>-36.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>mois de traitement</t>
-  </si>
-  <si>
-    <t>Accompagner les aidants</t>
-  </si>
-  <si>
-    <t>Nombre de bénéficiaires d'un congé de proche aidant indemnisé</t>
-  </si>
-  <si>
-    <t>nb-beneficiaires-ajpa</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>380.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>bénéficiaires</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>1392.0</t>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>115.0</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>63022.0</t>
+  </si>
+  <si>
+    <t>64881.0</t>
+  </si>
+  <si>
+    <t>-1859.0</t>
+  </si>
+  <si>
+    <t>76681</t>
+  </si>
+  <si>
+    <t>1021.0</t>
+  </si>
+  <si>
+    <t>7245</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>1847.0</t>
+  </si>
+  <si>
+    <t>8680</t>
+  </si>
+  <si>
+    <t>33.82</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>54.73</t>
+  </si>
+  <si>
+    <t>14.82</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10849.0</t>
+  </si>
+  <si>
+    <t>11340.0</t>
+  </si>
+  <si>
+    <t>-491.0</t>
+  </si>
+  <si>
+    <t>13573</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>2161.0</t>
+  </si>
+  <si>
+    <t>9848</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>34.37</t>
+  </si>
+  <si>
+    <t>62.33</t>
+  </si>
+  <si>
+    <t>13.57</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>10538.0</t>
+  </si>
+  <si>
+    <t>11271.0</t>
+  </si>
+  <si>
+    <t>-733.0</t>
+  </si>
+  <si>
+    <t>13307</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>2415</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>2416.0</t>
+  </si>
+  <si>
+    <t>11011</t>
+  </si>
+  <si>
+    <t>35.72</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>59.09</t>
+  </si>
+  <si>
+    <t>16.64</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
   <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>55.34</t>
-  </si>
-  <si>
-    <t>24.56</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>426.0</t>
-  </si>
-  <si>
-    <t>438.0</t>
-  </si>
-  <si>
-    <t>-12.0</t>
-  </si>
-  <si>
-    <t>-3.0</t>
-  </si>
-  <si>
-    <t>680.0</t>
-  </si>
-  <si>
-    <t>7.16</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>450.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>777.0</t>
-  </si>
-  <si>
-    <t>365.0</t>
-  </si>
-  <si>
-    <t>14.81</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>56.44</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>41.6</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>215.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>5.63</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>-41.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>15110.0</t>
+  </si>
+  <si>
+    <t>15821.0</t>
+  </si>
+  <si>
+    <t>-711.0</t>
+  </si>
+  <si>
+    <t>18326</t>
+  </si>
+  <si>
+    <t>267.0</t>
+  </si>
+  <si>
+    <t>2635</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>3914.0</t>
+  </si>
+  <si>
+    <t>21672</t>
+  </si>
+  <si>
+    <t>42.83</t>
+  </si>
+  <si>
+    <t>64.94</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>20.93</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>27891.0</t>
+  </si>
+  <si>
+    <t>29133.0</t>
+  </si>
+  <si>
+    <t>-1242.0</t>
+  </si>
+  <si>
+    <t>34420</t>
+  </si>
+  <si>
+    <t>537.0</t>
+  </si>
+  <si>
+    <t>5290</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>3144.0</t>
+  </si>
+  <si>
+    <t>20219</t>
+  </si>
+  <si>
+    <t>32.88</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>55.94</t>
+  </si>
+  <si>
+    <t>13.95</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>20682.0</t>
+  </si>
+  <si>
+    <t>21940.0</t>
+  </si>
+  <si>
+    <t>-1258.0</t>
+  </si>
+  <si>
+    <t>-6.0</t>
+  </si>
+  <si>
+    <t>26223</t>
+  </si>
+  <si>
+    <t>372.0</t>
+  </si>
+  <si>
+    <t>4120</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>2080.0</t>
+  </si>
+  <si>
+    <t>11151</t>
+  </si>
+  <si>
+    <t>32.25</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>62.42</t>
+  </si>
+  <si>
+    <t>12.47</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>20362.0</t>
+  </si>
+  <si>
+    <t>20658.0</t>
+  </si>
+  <si>
+    <t>-296.0</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>23984</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>2509.0</t>
+  </si>
+  <si>
+    <t>9482</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>34.15</t>
+  </si>
+  <si>
+    <t>61.22</t>
+  </si>
+  <si>
+    <t>11.23</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>14871.0</t>
+  </si>
+  <si>
+    <t>15015.0</t>
+  </si>
+  <si>
+    <t>-144.0</t>
+  </si>
+  <si>
+    <t>17774</t>
+  </si>
+  <si>
+    <t>274.0</t>
+  </si>
+  <si>
+    <t>2440</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>5394.0</t>
+  </si>
+  <si>
+    <t>20339</t>
+  </si>
+  <si>
+    <t>36.76</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>59.94</t>
+  </si>
+  <si>
+    <t>15.26</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>22440.0</t>
+  </si>
+  <si>
+    <t>22598.0</t>
+  </si>
+  <si>
+    <t>-158.0</t>
+  </si>
+  <si>
+    <t>26769</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>4860</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>4704.0</t>
+  </si>
+  <si>
+    <t>21360</t>
+  </si>
+  <si>
+    <t>62.98</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>19.89</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>226.0</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>23519.0</t>
+  </si>
+  <si>
+    <t>23456.0</t>
+  </si>
+  <si>
+    <t>27571</t>
+  </si>
+  <si>
+    <t>824.0</t>
+  </si>
+  <si>
+    <t>5190</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>4208.0</t>
+  </si>
+  <si>
+    <t>28739</t>
+  </si>
+  <si>
+    <t>31.83</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>52.69</t>
+  </si>
+  <si>
+    <t>13.83</t>
+  </si>
+  <si>
+    <t>273.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>39498.0</t>
+  </si>
+  <si>
+    <t>41070.0</t>
+  </si>
+  <si>
+    <t>-1572.0</t>
+  </si>
+  <si>
+    <t>46636</t>
+  </si>
+  <si>
+    <t>830.0</t>
+  </si>
+  <si>
+    <t>5815</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>3014.0</t>
+  </si>
+  <si>
+    <t>21096</t>
+  </si>
+  <si>
+    <t>43.37</t>
+  </si>
+  <si>
+    <t>60.25</t>
+  </si>
+  <si>
+    <t>21.69</t>
   </si>
   <si>
     <t>90.0</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>166.0</t>
-  </si>
-  <si>
-    <t>2584.0</t>
-  </si>
-  <si>
-    <t>39.27</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>70.8</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>44.05</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>2727.0</t>
-  </si>
-  <si>
-    <t>2379.0</t>
-  </si>
-  <si>
-    <t>348.0</t>
-  </si>
-  <si>
-    <t>3257.0</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>1050.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>478.0</t>
-  </si>
-  <si>
-    <t>62.5</t>
-  </si>
-  <si>
-    <t>2021-08-31</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>40.81</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>5.68</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>-7.0</t>
-  </si>
-  <si>
-    <t>-77.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>2874.0</t>
-  </si>
-  <si>
-    <t>39778.0</t>
-  </si>
-  <si>
-    <t>42.97</t>
-  </si>
-  <si>
-    <t>39.92</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>16.79</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>127.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>187.0</t>
-  </si>
-  <si>
-    <t>158.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>181.0</t>
-  </si>
-  <si>
-    <t>63022.0</t>
-  </si>
-  <si>
-    <t>64881.0</t>
-  </si>
-  <si>
-    <t>-1859.0</t>
-  </si>
-  <si>
-    <t>76681.0</t>
-  </si>
-  <si>
-    <t>1021.0</t>
-  </si>
-  <si>
-    <t>7245.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>2307.0</t>
-  </si>
-  <si>
-    <t>8680.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>33.82</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>54.73</t>
-  </si>
-  <si>
-    <t>14.82</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>118.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>124.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>10849.0</t>
-  </si>
-  <si>
-    <t>11340.0</t>
-  </si>
-  <si>
-    <t>-491.0</t>
-  </si>
-  <si>
-    <t>13573.0</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>1890.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>1989.0</t>
-  </si>
-  <si>
-    <t>9848.0</t>
-  </si>
-  <si>
-    <t>34.37</t>
-  </si>
-  <si>
-    <t>62.33</t>
-  </si>
-  <si>
-    <t>13.57</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>147.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>10538.0</t>
-  </si>
-  <si>
-    <t>11271.0</t>
-  </si>
-  <si>
-    <t>-733.0</t>
-  </si>
-  <si>
-    <t>13307.0</t>
-  </si>
-  <si>
-    <t>183.0</t>
-  </si>
-  <si>
-    <t>2415.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>2005.0</t>
-  </si>
-  <si>
-    <t>11011.0</t>
-  </si>
-  <si>
-    <t>35.72</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>59.09</t>
-  </si>
-  <si>
-    <t>16.64</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>103.0</t>
-  </si>
-  <si>
-    <t>15110.0</t>
-  </si>
-  <si>
-    <t>15821.0</t>
-  </si>
-  <si>
-    <t>-711.0</t>
-  </si>
-  <si>
-    <t>18326.0</t>
-  </si>
-  <si>
-    <t>267.0</t>
-  </si>
-  <si>
-    <t>2635.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>2406.0</t>
-  </si>
-  <si>
-    <t>21672.0</t>
-  </si>
-  <si>
-    <t>42.83</t>
-  </si>
-  <si>
-    <t>64.94</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>20.93</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>185.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>108.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>27891.0</t>
-  </si>
-  <si>
-    <t>29133.0</t>
-  </si>
-  <si>
-    <t>-1242.0</t>
-  </si>
-  <si>
-    <t>34420.0</t>
-  </si>
-  <si>
-    <t>537.0</t>
-  </si>
-  <si>
-    <t>5290.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>3211.0</t>
-  </si>
-  <si>
-    <t>20219.0</t>
-  </si>
-  <si>
-    <t>32.88</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>55.94</t>
-  </si>
-  <si>
-    <t>13.95</t>
-  </si>
-  <si>
-    <t>145.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>177.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>20682.0</t>
-  </si>
-  <si>
-    <t>21940.0</t>
-  </si>
-  <si>
-    <t>-1258.0</t>
-  </si>
-  <si>
-    <t>-6.0</t>
-  </si>
-  <si>
-    <t>26223.0</t>
-  </si>
-  <si>
-    <t>372.0</t>
-  </si>
-  <si>
-    <t>4120.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>2824.0</t>
-  </si>
-  <si>
-    <t>11151.0</t>
-  </si>
-  <si>
-    <t>32.25</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>62.42</t>
-  </si>
-  <si>
-    <t>12.47</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>20362.0</t>
-  </si>
-  <si>
-    <t>20658.0</t>
-  </si>
-  <si>
-    <t>-296.0</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>23984.0</t>
-  </si>
-  <si>
-    <t>252.0</t>
-  </si>
-  <si>
-    <t>1960.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>1381.0</t>
-  </si>
-  <si>
-    <t>9482.0</t>
-  </si>
-  <si>
-    <t>34.15</t>
-  </si>
-  <si>
-    <t>61.22</t>
-  </si>
-  <si>
-    <t>11.23</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>14871.0</t>
-  </si>
-  <si>
-    <t>15015.0</t>
-  </si>
-  <si>
-    <t>-144.0</t>
-  </si>
-  <si>
-    <t>17774.0</t>
-  </si>
-  <si>
-    <t>274.0</t>
-  </si>
-  <si>
-    <t>2440.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>5824.0</t>
-  </si>
-  <si>
-    <t>20339.0</t>
-  </si>
-  <si>
-    <t>36.76</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>59.94</t>
-  </si>
-  <si>
-    <t>15.26</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>213.0</t>
-  </si>
-  <si>
-    <t>128.0</t>
-  </si>
-  <si>
-    <t>237.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>22440.0</t>
-  </si>
-  <si>
-    <t>22598.0</t>
-  </si>
-  <si>
-    <t>-158.0</t>
-  </si>
-  <si>
-    <t>26769.0</t>
-  </si>
-  <si>
-    <t>600.0</t>
-  </si>
-  <si>
-    <t>4860.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>5947.0</t>
-  </si>
-  <si>
-    <t>21360.0</t>
-  </si>
-  <si>
-    <t>62.98</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>19.89</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>226.0</t>
-  </si>
-  <si>
-    <t>214.0</t>
-  </si>
-  <si>
-    <t>23519.0</t>
-  </si>
-  <si>
-    <t>23456.0</t>
-  </si>
-  <si>
-    <t>27571.0</t>
-  </si>
-  <si>
-    <t>824.0</t>
-  </si>
-  <si>
-    <t>5190.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>4482.0</t>
-  </si>
-  <si>
-    <t>28739.0</t>
-  </si>
-  <si>
-    <t>31.83</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>52.69</t>
-  </si>
-  <si>
-    <t>13.83</t>
-  </si>
-  <si>
-    <t>273.0</t>
-  </si>
-  <si>
-    <t>155.0</t>
-  </si>
-  <si>
-    <t>292.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>39498.0</t>
-  </si>
-  <si>
-    <t>41070.0</t>
-  </si>
-  <si>
-    <t>-1572.0</t>
-  </si>
-  <si>
-    <t>46636.0</t>
-  </si>
-  <si>
-    <t>830.0</t>
-  </si>
-  <si>
-    <t>5815.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>2048.0</t>
-  </si>
-  <si>
-    <t>21096.0</t>
-  </si>
-  <si>
-    <t>43.37</t>
-  </si>
-  <si>
-    <t>60.25</t>
-  </si>
-  <si>
-    <t>21.69</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
     <t>374.0</t>
   </si>
   <si>
-    <t>113.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
+    <t>113</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>19969.0</t>
@@ -1236,13 +1269,13 @@
     <t>-2.0</t>
   </si>
   <si>
-    <t>23462.0</t>
+    <t>23462</t>
   </si>
   <si>
     <t>535.0</t>
   </si>
   <si>
-    <t>3690.0</t>
+    <t>3690</t>
   </si>
   <si>
     <t>94</t>
@@ -1251,7 +1284,7 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>946.0</t>
+    <t>946</t>
   </si>
   <si>
     <t>56.1</t>
@@ -1272,10 +1305,10 @@
     <t>-0.0</t>
   </si>
   <si>
-    <t>1242.0</t>
-  </si>
-  <si>
-    <t>480.0</t>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>480</t>
   </si>
 </sst>
 </file>
@@ -1918,27 +1951,27 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1947,13 +1980,13 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
@@ -1962,30 +1995,30 @@
         <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1994,45 +2027,45 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
         <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -2041,7 +2074,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -2053,19 +2086,19 @@
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2139,13 +2172,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2157,13 +2190,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2183,13 +2216,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2201,7 +2234,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
@@ -2227,13 +2260,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2245,7 +2278,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -2271,13 +2304,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -2289,7 +2322,7 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>265</v>
+        <v>121</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
@@ -2315,31 +2348,31 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="K6" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L6" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M6" t="s">
         <v>44</v>
@@ -2362,31 +2395,31 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M7" t="s">
         <v>44</v>
@@ -2395,45 +2428,45 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -2442,27 +2475,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -2474,19 +2507,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L9" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2560,13 +2593,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2578,13 +2611,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2604,13 +2637,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F3" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2622,13 +2655,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -2648,13 +2681,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2666,7 +2699,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -2692,13 +2725,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -2710,13 +2743,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -2736,34 +2769,34 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K6" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
@@ -2783,19 +2816,19 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
@@ -2804,57 +2837,57 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="L7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M7" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="K8" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -2863,27 +2896,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -2895,19 +2928,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="L9" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="M9" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2981,13 +3014,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2999,13 +3032,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="L2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3025,13 +3058,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3043,13 +3076,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -3069,13 +3102,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -3087,7 +3120,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -3113,13 +3146,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -3131,13 +3164,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -3157,34 +3190,34 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L6" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="M6" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
@@ -3204,78 +3237,78 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>323</v>
       </c>
       <c r="M7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="K8" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L8" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -3284,27 +3317,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E9" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F9" t="s">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -3316,19 +3349,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3402,13 +3435,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3420,13 +3453,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="L2" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>334</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3446,13 +3479,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3470,7 +3503,7 @@
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -3490,13 +3523,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -3508,7 +3541,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -3534,13 +3567,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -3552,13 +3585,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -3578,13 +3611,13 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -3599,10 +3632,10 @@
         <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L6" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="M6" t="s">
         <v>44</v>
@@ -3625,13 +3658,13 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F7" t="s">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -3649,54 +3682,54 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>339</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E8" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="K8" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L8" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -3705,27 +3738,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E9" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F9" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -3737,19 +3770,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="L9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3823,13 +3856,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3841,13 +3874,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="L2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3867,13 +3900,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3885,13 +3918,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -3911,13 +3944,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F4" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -3929,7 +3962,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -3955,13 +3988,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -3973,13 +4006,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -3999,34 +4032,34 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F6" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L6" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
@@ -4046,78 +4079,78 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="K7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L7" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E8" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F8" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K8" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L8" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -4126,27 +4159,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E9" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F9" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -4158,19 +4191,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="L9" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M9" t="s">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4244,13 +4277,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E2" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4262,13 +4295,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="L2" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="M2" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4288,13 +4321,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4306,7 +4339,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
@@ -4332,13 +4365,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F4" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -4350,7 +4383,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -4376,13 +4409,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -4394,13 +4427,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -4420,31 +4453,31 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F6" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K6" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="L6" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="M6" t="s">
         <v>44</v>
@@ -4467,78 +4500,78 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L7" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="M8" t="s">
         <v>56</v>
@@ -4547,27 +4580,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F9" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -4579,19 +4612,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="L9" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4665,13 +4698,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F2" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4683,13 +4716,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="L2" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4709,13 +4742,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F3" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4727,13 +4760,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -4753,13 +4786,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E4" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F4" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -4771,7 +4804,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -4797,13 +4830,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E5" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F5" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -4815,13 +4848,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -4841,31 +4874,31 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K6" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="L6" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4888,78 +4921,78 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="L7" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E8" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F8" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -4968,27 +5001,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E9" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F9" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -5000,19 +5033,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="L9" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="M9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5086,13 +5119,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E2" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F2" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5104,13 +5137,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="L2" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5130,13 +5163,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E3" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F3" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5148,7 +5181,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
@@ -5174,13 +5207,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F4" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -5192,7 +5225,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -5218,13 +5251,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F5" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -5236,7 +5269,7 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
@@ -5262,34 +5295,34 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E6" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>404</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>393</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K6" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="L6" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="M6" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
@@ -5309,19 +5342,19 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>121</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
@@ -5330,57 +5363,57 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>393</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F8" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="K8" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="L8" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -5389,27 +5422,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E9" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F9" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -5421,19 +5454,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="L9" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="M9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5507,13 +5540,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5525,13 +5558,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="M2" t="s">
-        <v>393</v>
+        <v>153</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5551,13 +5584,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E3" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F3" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5569,7 +5602,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
@@ -5595,13 +5628,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E4" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F4" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -5613,7 +5646,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -5639,13 +5672,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F5" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -5657,13 +5690,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -5683,10 +5716,10 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E6" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -5704,13 +5737,13 @@
         <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
@@ -5730,10 +5763,10 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -5751,7 +5784,7 @@
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -5760,45 +5793,45 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E8" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F8" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="K8" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="L8" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -5807,27 +5840,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E9" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -5839,19 +5872,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="L9" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M9" t="s">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5925,13 +5958,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5943,13 +5976,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5969,13 +6002,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5987,7 +6020,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
@@ -6013,13 +6046,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -6057,13 +6090,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -6075,7 +6108,7 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
@@ -6101,10 +6134,10 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -6113,7 +6146,7 @@
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
@@ -6122,10 +6155,10 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" t="s">
         <v>67</v>
-      </c>
-      <c r="L6" t="s">
-        <v>58</v>
       </c>
       <c r="M6" t="s">
         <v>44</v>
@@ -6148,10 +6181,10 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -6172,7 +6205,7 @@
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -6181,45 +6214,45 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -6228,33 +6261,33 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
         <v>66</v>
@@ -6263,10 +6296,10 @@
         <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -6275,27 +6308,27 @@
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -6307,19 +6340,19 @@
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -6393,13 +6426,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6411,13 +6444,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6437,13 +6470,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -6455,13 +6488,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -6481,13 +6514,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -6499,7 +6532,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -6525,13 +6558,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -6543,7 +6576,7 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
@@ -6569,19 +6602,19 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
@@ -6590,10 +6623,10 @@
         <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M6" t="s">
         <v>44</v>
@@ -6616,10 +6649,10 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -6637,7 +6670,7 @@
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -6646,118 +6679,118 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I9" t="s">
         <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
@@ -6775,7 +6808,7 @@
         <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s">
         <v>58</v>
@@ -6784,7 +6817,7 @@
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -6858,13 +6891,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6876,13 +6909,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6902,13 +6935,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -6920,13 +6953,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -6946,13 +6979,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -6964,7 +6997,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -6990,13 +7023,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -7034,31 +7067,31 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="K6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L6" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="M6" t="s">
         <v>44</v>
@@ -7081,10 +7114,10 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -7102,89 +7135,89 @@
         <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I9" t="s">
         <v>66</v>
@@ -7193,10 +7226,10 @@
         <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -7205,27 +7238,27 @@
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -7237,19 +7270,19 @@
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="N10" t="s">
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7323,13 +7356,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7341,7 +7374,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -7358,16 +7391,16 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -7376,10 +7409,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="M3" t="s">
         <v>44</v>
@@ -7402,13 +7435,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -7420,13 +7453,13 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -7446,13 +7479,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -7467,10 +7500,10 @@
         <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="M5" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -7490,10 +7523,10 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -7522,10 +7555,10 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -7543,7 +7576,7 @@
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -7552,30 +7585,30 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
@@ -7593,45 +7626,45 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G9" t="s">
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K9" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s">
         <v>44</v>
@@ -7640,24 +7673,24 @@
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -7675,7 +7708,7 @@
         <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7749,13 +7782,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7767,13 +7800,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -7793,13 +7826,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -7811,7 +7844,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
@@ -7837,13 +7870,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -7855,13 +7888,13 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -7881,13 +7914,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -7899,13 +7932,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -7925,34 +7958,34 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="K6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="M6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
@@ -7972,19 +8005,19 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
@@ -7993,10 +8026,10 @@
         <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M7" t="s">
         <v>44</v>
@@ -8005,45 +8038,45 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -8052,27 +8085,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -8084,19 +8117,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="L9" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="M9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -8170,13 +8203,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8188,13 +8221,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M2" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -8214,13 +8247,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -8238,7 +8271,7 @@
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -8258,13 +8291,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -8302,13 +8335,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -8320,13 +8353,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -8346,34 +8379,34 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K6" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L6" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M6" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
@@ -8393,13 +8426,13 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -8411,60 +8444,60 @@
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -8473,27 +8506,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -8505,19 +8538,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L9" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -8591,13 +8624,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8609,13 +8642,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -8635,13 +8668,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -8679,13 +8712,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -8697,7 +8730,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -8723,13 +8756,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -8741,13 +8774,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -8767,34 +8800,34 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
@@ -8814,31 +8847,31 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L7" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="M7" t="s">
         <v>61</v>
@@ -8847,45 +8880,45 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="K8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -8894,27 +8927,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -8926,19 +8959,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -9012,13 +9045,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9030,13 +9063,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -9056,13 +9089,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -9074,13 +9107,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -9100,13 +9133,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -9118,7 +9151,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -9144,13 +9177,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -9162,13 +9195,13 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L5" t="s">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -9188,34 +9221,34 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
@@ -9235,78 +9268,78 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="K7" t="s">
         <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>260</v>
       </c>
       <c r="M7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -9315,27 +9348,27 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -9347,19 +9380,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L9" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/sante-famille/regions/barometre-resultats-sante-famille-regions-synthese.xlsx
+++ b/secteur-action-publique/sante-famille/regions/barometre-resultats-sante-famille-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="420">
   <si>
     <t>mesure</t>
   </si>
@@ -93,1156 +93,1201 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>499.0</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>1338.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>familles</t>
+  </si>
+  <si>
+    <t>Proposer une offre de lunettes, appareils auditifs et prothèses dentaires remboursée à 100%</t>
+  </si>
+  <si>
+    <t>Part des équipements vendus sans reste à charge dans le total des soins audio</t>
+  </si>
+  <si>
+    <t>tx-equipements-audio</t>
+  </si>
+  <si>
+    <t>34.17</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Part des équipements vendus sans reste à charge dans le total des soins dentaires</t>
+  </si>
+  <si>
+    <t>tx-equipements-dentaire</t>
+  </si>
+  <si>
+    <t>55.77</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>Part des équipements vendus sans reste à charge dans le total des soins optiques</t>
+  </si>
+  <si>
+    <t>tx-equipements-optique</t>
+  </si>
+  <si>
+    <t>29.96</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>Doubler le nombre de maisons de santé et de centres de santé dans les territoires</t>
+  </si>
+  <si>
+    <t>Nombre de maisons de santé pluri-professionnelles</t>
+  </si>
+  <si>
+    <t>nb-maisons-sante</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>maisons de santé</t>
+  </si>
+  <si>
+    <t>Nombre de centres de santé</t>
+  </si>
+  <si>
+    <t>nb-centres-sante</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>centres de santé</t>
+  </si>
+  <si>
+    <t>Allonger le congé paternité pour un meilleur développement de l’enfant</t>
+  </si>
+  <si>
+    <t>Nombre de pères / conjoints prenant un congé de paternité</t>
+  </si>
+  <si>
+    <t>nb-peres-conge-paternite</t>
+  </si>
+  <si>
+    <t>528.0</t>
+  </si>
+  <si>
+    <t>322.0</t>
+  </si>
+  <si>
+    <t>206.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>533.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>pères / conjoints dans l'année</t>
+  </si>
+  <si>
+    <t>Simplifier l’accès aux droits des personnes handicapées</t>
+  </si>
+  <si>
+    <t>Durée moyenne de traitement pour les demandes d’allocation adulte handicapé</t>
+  </si>
+  <si>
+    <t>duree-moyenne-traitement-demandes-allocation-adulte-handicape</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>-38.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>mois de traitement</t>
+  </si>
+  <si>
+    <t>Accompagner les aidants</t>
+  </si>
+  <si>
+    <t>Nombre de bénéficiaires d'un congé de proche aidant indemnisé</t>
+  </si>
+  <si>
+    <t>nb-beneficiaires-ajpa</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>bénéficiaires</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>356.0</t>
+  </si>
+  <si>
+    <t>1392.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>48.15</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>55.24</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>26.1</t>
+  </si>
+  <si>
+    <t>575.0</t>
+  </si>
+  <si>
+    <t>438.0</t>
+  </si>
+  <si>
+    <t>137.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>680.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>154.0</t>
+  </si>
+  <si>
+    <t>365.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>27.78</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>52.15</t>
+  </si>
+  <si>
+    <t>40.42</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>215.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>362.0</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>1251.0</t>
+  </si>
+  <si>
+    <t>2584.0</t>
+  </si>
+  <si>
+    <t>32.15</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>70.56</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>45.58</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>3464.0</t>
+  </si>
+  <si>
+    <t>2379.0</t>
+  </si>
+  <si>
+    <t>1085.0</t>
+  </si>
+  <si>
+    <t>3257.0</t>
+  </si>
+  <si>
+    <t>4.73</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>1050.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>72.73</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>58.42</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>12.39</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>-7.0</t>
+  </si>
+  <si>
+    <t>-70.0</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>12741.0</t>
+  </si>
+  <si>
+    <t>39778.0</t>
+  </si>
+  <si>
+    <t>46.47</t>
+  </si>
+  <si>
+    <t>38.96</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>18.14</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>70621.0</t>
+  </si>
+  <si>
+    <t>64881.0</t>
+  </si>
+  <si>
+    <t>5740.0</t>
+  </si>
+  <si>
+    <t>76681.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>1752.0</t>
+  </si>
+  <si>
+    <t>7245.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>4222.0</t>
+  </si>
+  <si>
+    <t>8680.0</t>
+  </si>
+  <si>
+    <t>35.98</t>
+  </si>
+  <si>
+    <t>54.17</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>15.78</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>124.0</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>12435.0</t>
+  </si>
+  <si>
+    <t>11340.0</t>
+  </si>
+  <si>
+    <t>1095.0</t>
+  </si>
+  <si>
+    <t>13573.0</t>
+  </si>
+  <si>
+    <t>477.0</t>
+  </si>
+  <si>
+    <t>1890.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>4293.0</t>
+  </si>
+  <si>
+    <t>9848.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>35.01</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>61.92</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>147.0</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>11754.0</t>
+  </si>
+  <si>
+    <t>11271.0</t>
+  </si>
+  <si>
+    <t>483.0</t>
+  </si>
+  <si>
+    <t>13307.0</t>
+  </si>
+  <si>
+    <t>321.0</t>
+  </si>
+  <si>
+    <t>2415.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>6701.0</t>
+  </si>
+  <si>
+    <t>11011.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>40.66</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>58.36</t>
+  </si>
+  <si>
+    <t>17.32</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>17171.0</t>
+  </si>
+  <si>
+    <t>15821.0</t>
+  </si>
+  <si>
+    <t>1350.0</t>
+  </si>
+  <si>
+    <t>18326.0</t>
+  </si>
+  <si>
+    <t>457.0</t>
+  </si>
+  <si>
+    <t>2635.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>9540.0</t>
+  </si>
+  <si>
+    <t>21672.0</t>
+  </si>
+  <si>
+    <t>43.11</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>64.63</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>21.57</t>
+  </si>
+  <si>
+    <t>218.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>31275.0</t>
+  </si>
+  <si>
+    <t>29133.0</t>
+  </si>
+  <si>
+    <t>2142.0</t>
+  </si>
+  <si>
+    <t>34420.0</t>
+  </si>
+  <si>
+    <t>919.0</t>
+  </si>
+  <si>
+    <t>5290.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>7481.0</t>
+  </si>
+  <si>
+    <t>20219.0</t>
+  </si>
+  <si>
+    <t>32.81</t>
+  </si>
+  <si>
+    <t>55.47</t>
+  </si>
+  <si>
+    <t>15.14</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>177.0</t>
+  </si>
+  <si>
+    <t>22823.0</t>
+  </si>
+  <si>
+    <t>21940.0</t>
+  </si>
+  <si>
+    <t>883.0</t>
+  </si>
+  <si>
+    <t>26223.0</t>
+  </si>
+  <si>
+    <t>704.0</t>
+  </si>
+  <si>
+    <t>4120.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>4532.0</t>
+  </si>
+  <si>
+    <t>11151.0</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>60.72</t>
+  </si>
+  <si>
+    <t>13.84</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>23368.0</t>
+  </si>
+  <si>
+    <t>20658.0</t>
+  </si>
+  <si>
+    <t>2710.0</t>
+  </si>
+  <si>
+    <t>23984.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>466.0</t>
+  </si>
+  <si>
+    <t>1960.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>5168.0</t>
+  </si>
+  <si>
+    <t>9482.0</t>
+  </si>
+  <si>
+    <t>38.31</t>
+  </si>
+  <si>
+    <t>60.82</t>
+  </si>
+  <si>
+    <t>12.29</t>
+  </si>
+  <si>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>17069.0</t>
+  </si>
+  <si>
+    <t>15015.0</t>
+  </si>
+  <si>
+    <t>2054.0</t>
+  </si>
+  <si>
+    <t>17774.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>469.0</t>
+  </si>
+  <si>
+    <t>2440.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>9178.0</t>
+  </si>
+  <si>
+    <t>20339.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>38.46</t>
+  </si>
+  <si>
+    <t>59.4</t>
+  </si>
+  <si>
+    <t>16.69</t>
+  </si>
+  <si>
+    <t>245.0</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>237.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>26189.0</t>
+  </si>
+  <si>
+    <t>22598.0</t>
+  </si>
+  <si>
+    <t>3591.0</t>
+  </si>
+  <si>
+    <t>26769.0</t>
+  </si>
+  <si>
+    <t>1053.0</t>
+  </si>
+  <si>
+    <t>4860.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>9255.0</t>
+  </si>
+  <si>
+    <t>21360.0</t>
+  </si>
+  <si>
+    <t>41.83</t>
+  </si>
+  <si>
+    <t>62.38</t>
+  </si>
+  <si>
+    <t>22.12</t>
+  </si>
+  <si>
+    <t>277.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>178.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>214.0</t>
+  </si>
+  <si>
+    <t>27180.0</t>
+  </si>
+  <si>
+    <t>23456.0</t>
+  </si>
+  <si>
+    <t>3724.0</t>
+  </si>
+  <si>
+    <t>27571.0</t>
+  </si>
+  <si>
+    <t>1582.0</t>
+  </si>
+  <si>
+    <t>5190.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>10993.0</t>
+  </si>
+  <si>
+    <t>28739.0</t>
+  </si>
+  <si>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>51.71</t>
+  </si>
+  <si>
+    <t>18.09</t>
+  </si>
+  <si>
+    <t>341.0</t>
+  </si>
+  <si>
+    <t>186.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
     <t>292.0</t>
   </si>
   <si>
-    <t>2022-02-28</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>1338.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>familles</t>
-  </si>
-  <si>
-    <t>Proposer une offre de lunettes, appareils auditifs et prothèses dentaires remboursée à 100%</t>
-  </si>
-  <si>
-    <t>Part des équipements vendus sans reste à charge dans le total des soins audio</t>
-  </si>
-  <si>
-    <t>tx-equipements-audio</t>
-  </si>
-  <si>
-    <t>34.26</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Part des équipements vendus sans reste à charge dans le total des soins dentaires</t>
-  </si>
-  <si>
-    <t>tx-equipements-dentaire</t>
-  </si>
-  <si>
-    <t>55.04</t>
-  </si>
-  <si>
-    <t>2019-03-31</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>Part des équipements vendus sans reste à charge dans le total des soins optiques</t>
-  </si>
-  <si>
-    <t>tx-equipements-optique</t>
-  </si>
-  <si>
-    <t>28.83</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>Doubler le nombre de maisons de santé et de centres de santé dans les territoires</t>
-  </si>
-  <si>
-    <t>Nombre de maisons de santé pluri-professionnelles</t>
-  </si>
-  <si>
-    <t>nb-maisons-sante</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>maisons de santé</t>
-  </si>
-  <si>
-    <t>Nombre de centres de santé</t>
-  </si>
-  <si>
-    <t>nb-centres-sante</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>centres de santé</t>
-  </si>
-  <si>
-    <t>Allonger le congé paternité pour un meilleur développement de l’enfant</t>
-  </si>
-  <si>
-    <t>Nombre de pères / conjoints prenant un congé de paternité</t>
-  </si>
-  <si>
-    <t>nb-peres-conge-paternite</t>
-  </si>
-  <si>
-    <t>431.0</t>
-  </si>
-  <si>
-    <t>322.0</t>
-  </si>
-  <si>
-    <t>109.0</t>
-  </si>
-  <si>
-    <t>533.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>pères / conjoints dans l'année</t>
-  </si>
-  <si>
-    <t>Simplifier l’accès aux droits des personnes handicapées</t>
-  </si>
-  <si>
-    <t>Durée moyenne de traitement pour les demandes d’allocation adulte handicapé</t>
-  </si>
-  <si>
-    <t>duree-moyenne-traitement-demandes-allocation-adulte-handicape</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>-3.0</t>
-  </si>
-  <si>
-    <t>-28.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>mois de traitement</t>
-  </si>
-  <si>
-    <t>Accompagner les aidants</t>
-  </si>
-  <si>
-    <t>Nombre de bénéficiaires d'un congé de proche aidant indemnisé</t>
-  </si>
-  <si>
-    <t>nb-beneficiaires-ajpa</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>380.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>bénéficiaires</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>209.0</t>
-  </si>
-  <si>
-    <t>1392.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>55.34</t>
-  </si>
-  <si>
-    <t>24.56</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>516.0</t>
-  </si>
-  <si>
-    <t>438.0</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>680.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>450.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>365.0</t>
-  </si>
-  <si>
-    <t>14.81</t>
-  </si>
-  <si>
-    <t>56.44</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>41.6</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>307.0</t>
-  </si>
-  <si>
-    <t>215.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>5.63</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>-41.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>568.0</t>
-  </si>
-  <si>
-    <t>2584.0</t>
-  </si>
-  <si>
-    <t>39.27</t>
-  </si>
-  <si>
-    <t>70.8</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>44.05</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>3132.0</t>
-  </si>
-  <si>
-    <t>2379.0</t>
-  </si>
-  <si>
-    <t>753.0</t>
-  </si>
-  <si>
-    <t>3257.0</t>
-  </si>
-  <si>
-    <t>86.0</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>62.0</t>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>44237.0</t>
+  </si>
+  <si>
+    <t>41070.0</t>
+  </si>
+  <si>
+    <t>3167.0</t>
+  </si>
+  <si>
+    <t>46636.0</t>
+  </si>
+  <si>
+    <t>1451.0</t>
+  </si>
+  <si>
+    <t>5815.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>7209.0</t>
+  </si>
+  <si>
+    <t>21096.0</t>
+  </si>
+  <si>
+    <t>42.78</t>
+  </si>
+  <si>
+    <t>59.16</t>
+  </si>
+  <si>
+    <t>23.39</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>479.0</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>23337.0</t>
+  </si>
+  <si>
+    <t>20454.0</t>
+  </si>
+  <si>
+    <t>2883.0</t>
+  </si>
+  <si>
+    <t>23462.0</t>
   </si>
   <si>
     <t>96.0</t>
   </si>
   <si>
-    <t>1050.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>62.5</t>
-  </si>
-  <si>
-    <t>2021-08-31</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>40.81</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>5.68</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>-7.0</t>
-  </si>
-  <si>
-    <t>-73.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>6505.0</t>
-  </si>
-  <si>
-    <t>39778.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>42.97</t>
-  </si>
-  <si>
-    <t>39.92</t>
-  </si>
-  <si>
-    <t>16.79</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>158.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>181.0</t>
-  </si>
-  <si>
-    <t>63926.0</t>
-  </si>
-  <si>
-    <t>64881.0</t>
-  </si>
-  <si>
-    <t>-955.0</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>76681.0</t>
-  </si>
-  <si>
-    <t>1021.0</t>
-  </si>
-  <si>
-    <t>7245.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>2455.0</t>
-  </si>
-  <si>
-    <t>8680.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>33.82</t>
-  </si>
-  <si>
-    <t>54.73</t>
-  </si>
-  <si>
-    <t>14.82</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>124.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>11583.0</t>
-  </si>
-  <si>
-    <t>11340.0</t>
-  </si>
-  <si>
-    <t>243.0</t>
-  </si>
-  <si>
-    <t>13573.0</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>1890.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>2581.0</t>
-  </si>
-  <si>
-    <t>9848.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>34.37</t>
-  </si>
-  <si>
-    <t>62.33</t>
-  </si>
-  <si>
-    <t>13.57</t>
-  </si>
-  <si>
-    <t>132.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>147.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>10882.0</t>
-  </si>
-  <si>
-    <t>11271.0</t>
-  </si>
-  <si>
-    <t>-389.0</t>
-  </si>
-  <si>
-    <t>13307.0</t>
-  </si>
-  <si>
-    <t>183.0</t>
-  </si>
-  <si>
-    <t>2415.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>3467.0</t>
-  </si>
-  <si>
-    <t>11011.0</t>
-  </si>
-  <si>
-    <t>35.72</t>
-  </si>
-  <si>
-    <t>59.09</t>
-  </si>
-  <si>
-    <t>16.64</t>
-  </si>
-  <si>
-    <t>116.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>103.0</t>
-  </si>
-  <si>
-    <t>16033.0</t>
-  </si>
-  <si>
-    <t>15821.0</t>
-  </si>
-  <si>
-    <t>212.0</t>
-  </si>
-  <si>
-    <t>18326.0</t>
-  </si>
-  <si>
-    <t>267.0</t>
-  </si>
-  <si>
-    <t>2635.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>5096.0</t>
-  </si>
-  <si>
-    <t>21672.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>42.83</t>
-  </si>
-  <si>
-    <t>64.94</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>20.93</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>199.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>122.0</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>29024.0</t>
-  </si>
-  <si>
-    <t>29133.0</t>
-  </si>
-  <si>
-    <t>-109.0</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>34420.0</t>
-  </si>
-  <si>
-    <t>537.0</t>
-  </si>
-  <si>
-    <t>5290.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>3991.0</t>
-  </si>
-  <si>
-    <t>20219.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>32.88</t>
-  </si>
-  <si>
-    <t>55.94</t>
-  </si>
-  <si>
-    <t>13.95</t>
-  </si>
-  <si>
-    <t>161.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>177.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>21232.0</t>
-  </si>
-  <si>
-    <t>21940.0</t>
-  </si>
-  <si>
-    <t>-708.0</t>
-  </si>
-  <si>
-    <t>26223.0</t>
-  </si>
-  <si>
-    <t>372.0</t>
-  </si>
-  <si>
-    <t>4120.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>2521.0</t>
-  </si>
-  <si>
-    <t>11151.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>32.25</t>
-  </si>
-  <si>
-    <t>62.42</t>
-  </si>
-  <si>
-    <t>12.47</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>113.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>22037.0</t>
-  </si>
-  <si>
-    <t>20658.0</t>
-  </si>
-  <si>
-    <t>1379.0</t>
-  </si>
-  <si>
-    <t>23984.0</t>
-  </si>
-  <si>
-    <t>252.0</t>
-  </si>
-  <si>
-    <t>1960.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>3056.0</t>
-  </si>
-  <si>
-    <t>9482.0</t>
-  </si>
-  <si>
-    <t>34.15</t>
-  </si>
-  <si>
-    <t>61.22</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>11.23</t>
-  </si>
-  <si>
-    <t>136.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>133.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>15873.0</t>
-  </si>
-  <si>
-    <t>15015.0</t>
-  </si>
-  <si>
-    <t>858.0</t>
-  </si>
-  <si>
-    <t>17774.0</t>
-  </si>
-  <si>
-    <t>274.0</t>
-  </si>
-  <si>
-    <t>2440.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>6177.0</t>
-  </si>
-  <si>
-    <t>20339.0</t>
-  </si>
-  <si>
-    <t>36.76</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>59.94</t>
-  </si>
-  <si>
-    <t>15.26</t>
+    <t>845.0</t>
+  </si>
+  <si>
+    <t>3690.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
   </si>
   <si>
     <t>227.0</t>
   </si>
   <si>
-    <t>128.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>237.0</t>
-  </si>
-  <si>
-    <t>24232.0</t>
-  </si>
-  <si>
-    <t>22598.0</t>
-  </si>
-  <si>
-    <t>1634.0</t>
-  </si>
-  <si>
-    <t>26769.0</t>
-  </si>
-  <si>
-    <t>600.0</t>
-  </si>
-  <si>
-    <t>4860.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>5661.0</t>
-  </si>
-  <si>
-    <t>21360.0</t>
-  </si>
-  <si>
-    <t>62.98</t>
-  </si>
-  <si>
-    <t>19.89</t>
-  </si>
-  <si>
-    <t>239.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>141.0</t>
-  </si>
-  <si>
-    <t>214.0</t>
-  </si>
-  <si>
-    <t>25273.0</t>
-  </si>
-  <si>
-    <t>23456.0</t>
-  </si>
-  <si>
-    <t>1817.0</t>
-  </si>
-  <si>
-    <t>27571.0</t>
-  </si>
-  <si>
-    <t>824.0</t>
-  </si>
-  <si>
-    <t>5190.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>5549.0</t>
-  </si>
-  <si>
-    <t>28739.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>31.83</t>
-  </si>
-  <si>
-    <t>52.69</t>
-  </si>
-  <si>
-    <t>13.83</t>
-  </si>
-  <si>
-    <t>305.0</t>
-  </si>
-  <si>
-    <t>155.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>40970.0</t>
-  </si>
-  <si>
-    <t>41070.0</t>
-  </si>
-  <si>
-    <t>-100.0</t>
-  </si>
-  <si>
-    <t>46636.0</t>
-  </si>
-  <si>
-    <t>830.0</t>
-  </si>
-  <si>
-    <t>5815.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>4053.0</t>
-  </si>
-  <si>
-    <t>21096.0</t>
-  </si>
-  <si>
-    <t>43.37</t>
-  </si>
-  <si>
-    <t>60.25</t>
-  </si>
-  <si>
-    <t>21.69</t>
-  </si>
-  <si>
-    <t>395.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>21452.0</t>
-  </si>
-  <si>
-    <t>20454.0</t>
-  </si>
-  <si>
-    <t>998.0</t>
-  </si>
-  <si>
-    <t>23462.0</t>
-  </si>
-  <si>
-    <t>535.0</t>
-  </si>
-  <si>
-    <t>3690.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
     <t>946.0</t>
   </si>
   <si>
-    <t>56.1</t>
-  </si>
-  <si>
-    <t>65.52</t>
-  </si>
-  <si>
-    <t>19.87</t>
-  </si>
-  <si>
-    <t>983.0</t>
+    <t>55.73</t>
+  </si>
+  <si>
+    <t>64.58</t>
+  </si>
+  <si>
+    <t>21.01</t>
+  </si>
+  <si>
+    <t>1072.0</t>
   </si>
   <si>
     <t>941.0</t>
   </si>
   <si>
     <t>1242.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
   </si>
   <si>
     <t>480.0</t>
@@ -1799,31 +1844,31 @@
         <v>49</v>
       </c>
       <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>52</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1831,10 +1876,10 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1843,25 +1888,25 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
         <v>61</v>
       </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>62</v>
-      </c>
-      <c r="L7" t="s">
-        <v>53</v>
       </c>
       <c r="M7" t="s">
         <v>63</v>
@@ -1893,7 +1938,7 @@
         <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
         <v>69</v>
@@ -1905,30 +1950,30 @@
         <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1937,45 +1982,45 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1984,10 +2029,10 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -1996,19 +2041,19 @@
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s">
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2082,13 +2127,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2100,13 +2145,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="L2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M2" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2126,13 +2171,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2144,7 +2189,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>264</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -2161,13 +2206,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2179,7 +2224,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -2196,13 +2241,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -2214,7 +2259,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -2231,40 +2276,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="K6" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="L6" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2272,40 +2317,40 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L7" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="M7" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -2325,63 +2370,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="K8" t="s">
-        <v>268</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -2390,19 +2435,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L9" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2476,13 +2521,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2494,13 +2539,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M2" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2520,13 +2565,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2555,13 +2600,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2573,7 +2618,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -2590,13 +2635,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -2608,7 +2653,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -2625,40 +2670,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="K6" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="L6" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M6" t="s">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2666,40 +2711,40 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>284</v>
+        <v>200</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -2719,63 +2764,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -2784,19 +2829,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L9" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2870,13 +2915,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2888,13 +2933,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M2" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2914,13 +2959,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2932,7 +2977,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>302</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -2949,13 +2994,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F4" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2967,7 +3012,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -2984,13 +3029,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -3002,7 +3047,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -3019,40 +3064,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="L6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3060,34 +3105,34 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="L7" t="s">
         <v>34</v>
@@ -3113,63 +3158,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M8" t="s">
-        <v>159</v>
+        <v>312</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -3178,19 +3223,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L9" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M9" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3264,13 +3309,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3282,13 +3327,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="L2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3308,13 +3353,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F3" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3326,7 +3371,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>302</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -3343,13 +3388,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -3361,7 +3406,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -3378,13 +3423,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F5" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -3396,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -3413,40 +3458,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="K6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3454,37 +3499,37 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K7" t="s">
-        <v>320</v>
+        <v>146</v>
       </c>
       <c r="L7" t="s">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
         <v>63</v>
@@ -3507,63 +3552,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E8" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>305</v>
       </c>
       <c r="L8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>329</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -3572,19 +3617,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L9" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3658,13 +3703,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3676,13 +3721,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M2" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3702,13 +3747,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3720,7 +3765,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -3737,13 +3782,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -3755,7 +3800,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -3772,13 +3817,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -3790,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -3807,40 +3852,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E6" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F6" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K6" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="L6" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M6" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3848,40 +3893,40 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s">
         <v>61</v>
       </c>
-      <c r="J7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
       <c r="L7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="M7" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -3901,63 +3946,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="L8" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E9" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F9" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -3966,19 +4011,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="L9" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M9" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4052,13 +4097,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4070,13 +4115,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M2" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4096,13 +4141,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E3" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>357</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4114,7 +4159,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -4131,13 +4176,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -4149,7 +4194,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -4166,13 +4211,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E5" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F5" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -4184,7 +4229,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -4201,40 +4246,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E6" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F6" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="K6" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L6" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4242,40 +4287,40 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="L7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="M7" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -4295,63 +4340,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E8" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="L8" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E9" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -4360,19 +4405,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="L9" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M9" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4446,13 +4491,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4464,13 +4509,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="L2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="M2" t="s">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4490,13 +4535,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E3" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F3" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4508,7 +4553,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -4525,13 +4570,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E4" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F4" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -4543,7 +4588,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -4560,13 +4605,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F5" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -4578,7 +4623,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -4595,40 +4640,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E6" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="K6" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>381</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4636,40 +4681,40 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>264</v>
       </c>
       <c r="L7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M7" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -4689,63 +4734,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E8" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="K8" t="s">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F9" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -4754,19 +4799,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="L9" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4840,13 +4885,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4858,13 +4903,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="L2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="M2" t="s">
-        <v>366</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4884,13 +4929,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F3" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4902,7 +4947,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>264</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -4919,13 +4964,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F4" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -4937,7 +4982,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -4954,13 +4999,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F5" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -4972,7 +5017,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -4989,40 +5034,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E6" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>396</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>373</v>
+        <v>227</v>
       </c>
       <c r="K6" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="L6" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="M6" t="s">
-        <v>201</v>
+        <v>399</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5030,40 +5075,40 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="L7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="M7" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -5083,63 +5128,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E8" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F8" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="L8" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>405</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E9" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F9" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -5148,19 +5193,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="L9" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>346</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5234,13 +5279,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5252,13 +5297,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
       <c r="L2" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="M2" t="s">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5278,13 +5323,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E3" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F3" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5296,7 +5341,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -5313,13 +5358,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F4" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -5331,7 +5376,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -5348,13 +5393,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F5" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -5366,7 +5411,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -5383,40 +5428,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E6" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>317</v>
-      </c>
-      <c r="L6" t="s">
-        <v>100</v>
-      </c>
       <c r="M6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5424,34 +5469,34 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>395</v>
-      </c>
-      <c r="E7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -5474,63 +5519,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E8" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F8" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>305</v>
       </c>
       <c r="L8" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="M8" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E9" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>418</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -5539,19 +5584,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>175</v>
+        <v>418</v>
       </c>
       <c r="L9" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="M9" t="s">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5625,13 +5670,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5643,13 +5688,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5669,13 +5714,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -5687,7 +5732,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -5704,13 +5749,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -5722,7 +5767,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -5739,13 +5784,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -5757,7 +5802,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -5774,40 +5819,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
         <v>63</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5815,29 +5860,29 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>60</v>
       </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
       <c r="J7" t="s">
         <v>22</v>
       </c>
@@ -5845,7 +5890,7 @@
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -5868,78 +5913,78 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -5948,30 +5993,30 @@
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -5980,19 +6025,19 @@
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="N10" t="s">
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6066,13 +6111,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6084,13 +6129,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6110,13 +6155,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -6128,7 +6173,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -6145,13 +6190,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -6163,7 +6208,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -6180,13 +6225,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -6198,7 +6243,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -6215,40 +6260,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
         <v>52</v>
       </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" t="s">
-        <v>120</v>
-      </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -6256,34 +6301,34 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
         <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>51</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -6306,110 +6351,110 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -6418,19 +6463,19 @@
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" t="s">
         <v>133</v>
       </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
       <c r="N10" t="s">
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6528,7 +6573,7 @@
         <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6566,7 +6611,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -6589,7 +6634,7 @@
         <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -6601,7 +6646,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -6624,7 +6669,7 @@
         <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -6636,7 +6681,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -6659,34 +6704,34 @@
         <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -6694,10 +6739,10 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>134</v>
@@ -6706,25 +6751,25 @@
         <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
         <v>61</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -6750,45 +6795,45 @@
         <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="L8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M8" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>134</v>
@@ -6797,25 +6842,25 @@
         <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -6824,18 +6869,18 @@
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>134</v>
@@ -6844,10 +6889,10 @@
         <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -6856,19 +6901,19 @@
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s">
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6942,10 +6987,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -6977,16 +7022,16 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -6995,16 +7040,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -7021,13 +7057,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -7039,7 +7075,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -7056,13 +7092,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -7074,7 +7110,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -7091,25 +7127,25 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -7117,34 +7153,34 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -7167,16 +7203,16 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
@@ -7185,7 +7221,7 @@
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -7194,77 +7230,77 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -7276,7 +7312,7 @@
         <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7350,13 +7386,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7368,13 +7404,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -7394,13 +7430,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -7412,7 +7448,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -7429,13 +7465,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -7447,7 +7483,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -7464,13 +7500,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -7482,7 +7518,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -7499,40 +7535,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -7540,40 +7576,40 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" t="s">
         <v>61</v>
-      </c>
-      <c r="J7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -7593,63 +7629,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -7658,19 +7694,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7744,13 +7780,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7762,13 +7798,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -7788,13 +7824,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -7806,7 +7842,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -7823,13 +7859,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -7841,7 +7877,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -7858,13 +7894,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -7876,7 +7912,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -7893,40 +7929,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -7934,40 +7970,40 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -7987,63 +8023,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -8052,19 +8088,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -8138,13 +8174,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8156,13 +8192,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -8182,13 +8218,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -8200,7 +8236,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -8217,13 +8253,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -8235,7 +8271,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -8252,13 +8288,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -8270,7 +8306,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -8287,40 +8323,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -8328,40 +8364,40 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -8381,63 +8417,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -8446,19 +8482,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L9" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -8532,13 +8568,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8550,13 +8586,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -8576,13 +8612,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -8594,7 +8630,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -8611,13 +8647,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -8629,7 +8665,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -8646,13 +8682,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -8664,7 +8700,7 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -8681,40 +8717,40 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="K6" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L6" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -8722,40 +8758,40 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="M7" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -8775,63 +8811,63 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -8840,19 +8876,19 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M9" t="s">
         <v>248</v>
       </c>
-      <c r="M9" t="s">
-        <v>249</v>
-      </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
